--- a/Assets/Excels/Dialogues.xlsx
+++ b/Assets/Excels/Dialogues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AF7C76-26B6-481E-BC89-E11336E6690F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3454E816-CA62-4D63-AEA8-83F0061ACC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쓰으읍.. 딱아아악 한대만 피우고 올까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로봇랜드 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,15 +115,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그래가자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래가자가자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가자!</t>
+    <t>여긴 어디지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사가 없다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +562,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -597,10 +601,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -608,10 +612,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -619,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -630,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -641,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -652,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -663,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -674,10 +678,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,10 +689,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,10 +700,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,10 +711,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -718,10 +722,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -729,10 +733,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -740,10 +744,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -751,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -762,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -773,10 +777,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -784,10 +788,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -795,10 +799,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excels/Dialogues.xlsx
+++ b/Assets/Excels/Dialogues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AR_Project2024\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3454E816-CA62-4D63-AEA8-83F0061ACC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACC0CCF-C9A9-4644-ABD7-E6FE96A55D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{82BB1C98-AD21-4D9B-A7EE-1FBBCC45EAF0}"/>
   </bookViews>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로봇랜드 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로봇랜드 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,18 +107,10 @@
     <t>로봇랜드 19</t>
   </si>
   <si>
-    <t>그래!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여긴 어디지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대사가 없다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +120,18 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로보모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삐빅! 생명반응 감지! 생명반응 감지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,13 +562,13 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53" customWidth="1"/>
     <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="5" max="5" width="25.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -601,10 +601,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -612,10 +612,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -623,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -634,10 +634,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -645,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -656,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -667,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -678,10 +678,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -689,10 +689,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -700,10 +700,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -711,10 +711,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -722,10 +722,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -733,10 +733,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -744,10 +744,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -755,10 +755,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -766,10 +766,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -777,10 +777,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -788,10 +788,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -799,10 +799,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
